--- a/BackTest/2020-01-25 BackTest IPX.xlsx
+++ b/BackTest/2020-01-25 BackTest IPX.xlsx
@@ -517,7 +517,7 @@
         <v>1567985.364126727</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1534629.329526727</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1470678.995526727</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1472357.545626727</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1472357.545626727</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1427112.650126727</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1438583.604126727</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1377854.906426727</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>872617.2574838696</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>868377.6166838695</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>765416.5198838696</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>767515.8586838696</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>757780.4173838696</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>761149.2036838697</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>751087.2042838697</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>748987.8654838697</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>741130.1135838697</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>723985.9722838696</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>707544.1877838697</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>704695.4241838697</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>705395.2037838697</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>688783.7811838697</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>690941.5813838698</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>694514.0349838698</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>690315.3573838697</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>693827.4025838698</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>695926.7413838698</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>693762.3048838698</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>683062.1620838698</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>856338.4967188367</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>845080.5683188367</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>809745.0215188367</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>811854.3603188368</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>787613.1484188368</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>759486.7914188368</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -26851,14 +26851,10 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="J802" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
@@ -26888,19 +26884,11 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="J803" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26929,19 +26917,11 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="J804" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26970,19 +26950,11 @@
         <v>372328.1639210484</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="J805" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27011,19 +26983,11 @@
         <v>375151.7931210484</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>55.97</v>
-      </c>
-      <c r="J806" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27052,19 +27016,11 @@
         <v>362354.5294210484</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="J807" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27093,19 +27049,11 @@
         <v>357448.2131210484</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J808" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27139,12 +27087,10 @@
       <c r="I809" t="n">
         <v>55.85</v>
       </c>
-      <c r="J809" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L809" t="n">
@@ -27180,9 +27126,7 @@
       <c r="I810" t="n">
         <v>55.85</v>
       </c>
-      <c r="J810" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27221,9 +27165,7 @@
       <c r="I811" t="n">
         <v>55.85</v>
       </c>
-      <c r="J811" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27262,9 +27204,7 @@
       <c r="I812" t="n">
         <v>55.81</v>
       </c>
-      <c r="J812" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27303,9 +27243,7 @@
       <c r="I813" t="n">
         <v>55.8</v>
       </c>
-      <c r="J813" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27344,9 +27282,7 @@
       <c r="I814" t="n">
         <v>55.8</v>
       </c>
-      <c r="J814" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27385,9 +27321,7 @@
       <c r="I815" t="n">
         <v>55.8</v>
       </c>
-      <c r="J815" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27426,9 +27360,7 @@
       <c r="I816" t="n">
         <v>55.81</v>
       </c>
-      <c r="J816" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27467,9 +27399,7 @@
       <c r="I817" t="n">
         <v>55.8</v>
       </c>
-      <c r="J817" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27508,9 +27438,7 @@
       <c r="I818" t="n">
         <v>55.8</v>
       </c>
-      <c r="J818" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27549,9 +27477,7 @@
       <c r="I819" t="n">
         <v>55.8</v>
       </c>
-      <c r="J819" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27590,9 +27516,7 @@
       <c r="I820" t="n">
         <v>55.81</v>
       </c>
-      <c r="J820" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27631,9 +27555,7 @@
       <c r="I821" t="n">
         <v>55.8</v>
       </c>
-      <c r="J821" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27672,9 +27594,7 @@
       <c r="I822" t="n">
         <v>55.85</v>
       </c>
-      <c r="J822" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27713,9 +27633,7 @@
       <c r="I823" t="n">
         <v>55.86</v>
       </c>
-      <c r="J823" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27754,9 +27672,7 @@
       <c r="I824" t="n">
         <v>55.86</v>
       </c>
-      <c r="J824" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27795,9 +27711,7 @@
       <c r="I825" t="n">
         <v>55.85</v>
       </c>
-      <c r="J825" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27836,9 +27750,7 @@
       <c r="I826" t="n">
         <v>55.86</v>
       </c>
-      <c r="J826" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27877,9 +27789,7 @@
       <c r="I827" t="n">
         <v>55.97</v>
       </c>
-      <c r="J827" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27918,9 +27828,7 @@
       <c r="I828" t="n">
         <v>55.97</v>
       </c>
-      <c r="J828" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27959,9 +27867,7 @@
       <c r="I829" t="n">
         <v>55.96</v>
       </c>
-      <c r="J829" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28000,9 +27906,7 @@
       <c r="I830" t="n">
         <v>55.97</v>
       </c>
-      <c r="J830" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28041,9 +27945,7 @@
       <c r="I831" t="n">
         <v>55.96</v>
       </c>
-      <c r="J831" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28082,9 +27984,7 @@
       <c r="I832" t="n">
         <v>56.01</v>
       </c>
-      <c r="J832" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28123,9 +28023,7 @@
       <c r="I833" t="n">
         <v>56.02</v>
       </c>
-      <c r="J833" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28164,9 +28062,7 @@
       <c r="I834" t="n">
         <v>55.94</v>
       </c>
-      <c r="J834" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28205,9 +28101,7 @@
       <c r="I835" t="n">
         <v>55.93</v>
       </c>
-      <c r="J835" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28246,9 +28140,7 @@
       <c r="I836" t="n">
         <v>55.93</v>
       </c>
-      <c r="J836" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28287,9 +28179,7 @@
       <c r="I837" t="n">
         <v>55.93</v>
       </c>
-      <c r="J837" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28328,9 +28218,7 @@
       <c r="I838" t="n">
         <v>55.93</v>
       </c>
-      <c r="J838" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28369,9 +28257,7 @@
       <c r="I839" t="n">
         <v>56.02</v>
       </c>
-      <c r="J839" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28410,9 +28296,7 @@
       <c r="I840" t="n">
         <v>55.97</v>
       </c>
-      <c r="J840" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28451,9 +28335,7 @@
       <c r="I841" t="n">
         <v>55.96</v>
       </c>
-      <c r="J841" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28492,9 +28374,7 @@
       <c r="I842" t="n">
         <v>55.97</v>
       </c>
-      <c r="J842" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28533,9 +28413,7 @@
       <c r="I843" t="n">
         <v>55.96</v>
       </c>
-      <c r="J843" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28574,9 +28452,7 @@
       <c r="I844" t="n">
         <v>55.96</v>
       </c>
-      <c r="J844" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28615,9 +28491,7 @@
       <c r="I845" t="n">
         <v>55.96</v>
       </c>
-      <c r="J845" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28656,9 +28530,7 @@
       <c r="I846" t="n">
         <v>55.96</v>
       </c>
-      <c r="J846" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28697,9 +28569,7 @@
       <c r="I847" t="n">
         <v>55.97</v>
       </c>
-      <c r="J847" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28738,9 +28608,7 @@
       <c r="I848" t="n">
         <v>55.97</v>
       </c>
-      <c r="J848" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28779,9 +28647,7 @@
       <c r="I849" t="n">
         <v>56.01</v>
       </c>
-      <c r="J849" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28820,9 +28686,7 @@
       <c r="I850" t="n">
         <v>56.01</v>
       </c>
-      <c r="J850" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28861,9 +28725,7 @@
       <c r="I851" t="n">
         <v>56</v>
       </c>
-      <c r="J851" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28902,9 +28764,7 @@
       <c r="I852" t="n">
         <v>56.01</v>
       </c>
-      <c r="J852" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28943,9 +28803,7 @@
       <c r="I853" t="n">
         <v>56.06</v>
       </c>
-      <c r="J853" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28984,9 +28842,7 @@
       <c r="I854" t="n">
         <v>56.06</v>
       </c>
-      <c r="J854" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29025,9 +28881,7 @@
       <c r="I855" t="n">
         <v>56.09</v>
       </c>
-      <c r="J855" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29066,9 +28920,7 @@
       <c r="I856" t="n">
         <v>56.42</v>
       </c>
-      <c r="J856" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29107,9 +28959,7 @@
       <c r="I857" t="n">
         <v>56.42</v>
       </c>
-      <c r="J857" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29148,9 +28998,7 @@
       <c r="I858" t="n">
         <v>56.5</v>
       </c>
-      <c r="J858" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29189,9 +29037,7 @@
       <c r="I859" t="n">
         <v>56.5</v>
       </c>
-      <c r="J859" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29230,9 +29076,7 @@
       <c r="I860" t="n">
         <v>56.45</v>
       </c>
-      <c r="J860" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29271,9 +29115,7 @@
       <c r="I861" t="n">
         <v>56.44</v>
       </c>
-      <c r="J861" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29312,9 +29154,7 @@
       <c r="I862" t="n">
         <v>56.46</v>
       </c>
-      <c r="J862" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29353,9 +29193,7 @@
       <c r="I863" t="n">
         <v>56.47</v>
       </c>
-      <c r="J863" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29394,9 +29232,7 @@
       <c r="I864" t="n">
         <v>56.47</v>
       </c>
-      <c r="J864" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29435,9 +29271,7 @@
       <c r="I865" t="n">
         <v>56.48</v>
       </c>
-      <c r="J865" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29471,14 +29305,10 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>56.46</v>
-      </c>
-      <c r="J866" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29517,9 +29347,7 @@
       <c r="I867" t="n">
         <v>56.52</v>
       </c>
-      <c r="J867" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29553,14 +29381,10 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="J868" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29594,14 +29418,10 @@
         <v>422524.5125210484</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="J869" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29635,14 +29455,10 @@
         <v>426850.7854210483</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>56.58</v>
-      </c>
-      <c r="J870" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29679,9 +29495,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29718,9 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29757,9 +29569,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29796,9 +29606,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29835,9 +29643,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29874,9 +29680,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29913,9 +29717,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29952,9 +29754,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29991,9 +29791,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30030,9 +29828,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30069,9 +29865,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30108,9 +29902,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30147,9 +29939,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30186,9 +29976,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30225,9 +30013,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30264,9 +30050,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30303,9 +30087,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30342,9 +30124,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30381,9 +30161,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30420,9 +30198,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30459,9 +30235,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30498,9 +30272,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30537,9 +30309,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30576,9 +30346,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30615,9 +30383,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30654,9 +30420,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30693,9 +30457,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30732,9 +30494,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30771,9 +30531,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30810,9 +30568,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30849,9 +30605,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30888,9 +30642,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30927,9 +30679,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30966,9 +30716,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31005,9 +30753,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31044,9 +30790,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31083,9 +30827,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31122,9 +30864,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31161,9 +30901,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31200,9 +30938,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31239,9 +30975,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31278,9 +31012,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31317,9 +31049,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31356,9 +31086,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31395,9 +31123,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31434,9 +31160,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31473,9 +31197,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31512,9 +31234,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31551,9 +31271,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31590,9 +31308,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31629,9 +31345,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31668,9 +31382,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31707,9 +31419,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31746,9 +31456,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31785,9 +31493,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31824,9 +31530,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31863,9 +31567,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31902,9 +31604,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31941,9 +31641,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31980,9 +31678,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32019,9 +31715,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32058,9 +31752,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32097,9 +31789,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32136,9 +31826,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32175,9 +31863,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32214,9 +31900,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32253,9 +31937,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32292,9 +31974,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32331,9 +32011,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32370,9 +32048,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32409,9 +32085,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32448,9 +32122,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32487,9 +32159,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32526,9 +32196,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32565,9 +32233,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32604,9 +32270,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32643,9 +32307,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32682,9 +32344,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32721,9 +32381,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32760,9 +32418,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32799,9 +32455,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32838,9 +32492,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32877,9 +32529,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32916,9 +32566,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32955,9 +32603,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32994,9 +32640,7 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33033,9 +32677,7 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33072,9 +32714,7 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33111,9 +32751,7 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33150,9 +32788,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33189,9 +32825,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33228,9 +32862,7 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33267,9 +32899,7 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33306,9 +32936,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33345,9 +32973,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33384,9 +33010,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33423,9 +33047,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33462,9 +33084,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33501,9 +33121,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33540,9 +33158,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33579,9 +33195,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33618,9 +33232,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33657,9 +33269,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33696,9 +33306,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33735,9 +33343,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33774,9 +33380,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33813,9 +33417,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33852,9 +33454,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33891,9 +33491,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33930,9 +33528,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33969,9 +33565,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34008,9 +33602,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34047,9 +33639,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34086,9 +33676,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34125,9 +33713,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34164,9 +33750,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34203,9 +33787,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34242,9 +33824,7 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34281,9 +33861,7 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34320,9 +33898,7 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34359,9 +33935,7 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34398,9 +33972,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34437,9 +34009,7 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34476,9 +34046,7 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34515,9 +34083,7 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34554,9 +34120,7 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34593,9 +34157,7 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34632,9 +34194,7 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34671,9 +34231,7 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34710,9 +34268,7 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34749,9 +34305,7 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34788,9 +34342,7 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34827,9 +34379,7 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34866,9 +34416,7 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34905,9 +34453,7 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34944,9 +34490,7 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34983,9 +34527,7 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35022,9 +34564,7 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35061,9 +34601,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35100,9 +34638,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35139,9 +34675,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35178,9 +34712,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35217,9 +34749,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35256,9 +34786,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35295,9 +34823,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35334,9 +34860,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35373,9 +34897,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35412,9 +34934,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35451,9 +34971,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35490,9 +35008,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35529,9 +35045,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35568,9 +35082,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35607,9 +35119,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35646,9 +35156,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35685,9 +35193,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35724,9 +35230,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35763,9 +35267,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35802,9 +35304,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35841,9 +35341,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35880,9 +35378,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35919,9 +35415,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35958,9 +35452,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35997,9 +35489,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36036,9 +35526,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36075,9 +35563,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36114,9 +35600,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36153,9 +35637,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36192,9 +35674,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36231,9 +35711,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36270,9 +35748,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36309,9 +35785,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36348,9 +35822,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36387,9 +35859,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36426,9 +35896,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36465,9 +35933,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36504,9 +35970,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36543,9 +36007,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36582,9 +36044,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36621,9 +36081,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36660,9 +36118,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36699,9 +36155,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36738,9 +36192,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36777,9 +36229,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36816,9 +36266,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36855,9 +36303,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36894,9 +36340,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36933,9 +36377,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36972,9 +36414,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37011,9 +36451,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37050,9 +36488,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37089,9 +36525,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37128,9 +36562,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37167,9 +36599,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37206,9 +36636,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37245,9 +36673,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37284,9 +36710,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37323,9 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37362,9 +36784,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37401,9 +36821,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37440,9 +36858,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37479,9 +36895,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37518,9 +36932,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37557,9 +36969,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37596,9 +37006,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37635,9 +37043,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37674,9 +37080,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37713,9 +37117,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37752,9 +37154,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37791,9 +37191,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37830,9 +37228,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37869,9 +37265,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37908,9 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37947,9 +37339,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37986,9 +37376,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38025,9 +37413,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38064,9 +37450,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38103,9 +37487,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38142,9 +37524,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38181,9 +37561,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38220,9 +37598,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38259,9 +37635,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38298,9 +37672,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38337,9 +37709,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38376,9 +37746,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38415,9 +37783,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38454,9 +37820,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38493,9 +37857,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38532,9 +37894,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38571,9 +37931,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38610,9 +37968,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38649,9 +38005,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38688,9 +38042,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38727,9 +38079,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38766,9 +38116,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38805,9 +38153,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38844,9 +38190,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38883,9 +38227,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38922,9 +38264,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38961,9 +38301,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39000,9 +38338,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39039,9 +38375,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39078,9 +38412,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39117,9 +38449,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39156,9 +38486,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39195,9 +38523,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39234,9 +38560,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39273,9 +38597,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39312,9 +38634,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39351,9 +38671,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39390,9 +38708,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39429,9 +38745,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39468,9 +38782,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39507,9 +38819,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39546,9 +38856,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39585,9 +38893,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39624,9 +38930,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39663,9 +38967,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39702,9 +39004,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39741,9 +39041,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39780,9 +39078,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39819,9 +39115,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39858,9 +39152,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39897,9 +39189,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39936,9 +39226,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39975,9 +39263,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40014,9 +39300,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40053,9 +39337,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40092,9 +39374,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40131,9 +39411,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40170,9 +39448,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40209,9 +39485,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40248,9 +39522,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40287,9 +39559,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40326,9 +39596,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40365,9 +39633,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40404,9 +39670,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40443,9 +39707,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40479,14 +39741,10 @@
         <v>333534.1538716204</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="J1148" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40520,14 +39778,10 @@
         <v>341604.1815716204</v>
       </c>
       <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="J1149" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40566,9 +39820,7 @@
       <c r="I1150" t="n">
         <v>55.42</v>
       </c>
-      <c r="J1150" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40607,9 +39859,7 @@
       <c r="I1151" t="n">
         <v>55.43</v>
       </c>
-      <c r="J1151" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40648,9 +39898,7 @@
       <c r="I1152" t="n">
         <v>55.39</v>
       </c>
-      <c r="J1152" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40689,9 +39937,7 @@
       <c r="I1153" t="n">
         <v>55.41</v>
       </c>
-      <c r="J1153" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40730,9 +39976,7 @@
       <c r="I1154" t="n">
         <v>55.63</v>
       </c>
-      <c r="J1154" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40771,9 +40015,7 @@
       <c r="I1155" t="n">
         <v>55.81</v>
       </c>
-      <c r="J1155" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40812,9 +40054,7 @@
       <c r="I1156" t="n">
         <v>55.59</v>
       </c>
-      <c r="J1156" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40853,9 +40093,7 @@
       <c r="I1157" t="n">
         <v>55.62</v>
       </c>
-      <c r="J1157" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40894,9 +40132,7 @@
       <c r="I1158" t="n">
         <v>55.82</v>
       </c>
-      <c r="J1158" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40935,9 +40171,7 @@
       <c r="I1159" t="n">
         <v>55.74</v>
       </c>
-      <c r="J1159" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40976,9 +40210,7 @@
       <c r="I1160" t="n">
         <v>55.75</v>
       </c>
-      <c r="J1160" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41017,9 +40249,7 @@
       <c r="I1161" t="n">
         <v>55.39</v>
       </c>
-      <c r="J1161" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41058,9 +40288,7 @@
       <c r="I1162" t="n">
         <v>55.64</v>
       </c>
-      <c r="J1162" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41099,9 +40327,7 @@
       <c r="I1163" t="n">
         <v>55.63</v>
       </c>
-      <c r="J1163" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41140,9 +40366,7 @@
       <c r="I1164" t="n">
         <v>55.66</v>
       </c>
-      <c r="J1164" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41181,9 +40405,7 @@
       <c r="I1165" t="n">
         <v>55.74</v>
       </c>
-      <c r="J1165" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41217,12 +40439,12 @@
         <v>421148.3188410965</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>55.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>57.07</v>
+      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41256,12 +40478,12 @@
         <v>418913.2187410966</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>55.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41295,12 +40517,12 @@
         <v>418913.2187410966</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>55.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41334,12 +40556,12 @@
         <v>426402.1372410966</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>55.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41373,12 +40595,12 @@
         <v>426402.1372410966</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>55.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>56.58</v>
+      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41415,9 +40637,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41454,9 +40674,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41493,9 +40711,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41532,9 +40748,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41571,9 +40785,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41610,9 +40822,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41649,9 +40859,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41688,9 +40896,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41727,9 +40933,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41766,9 +40970,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41805,9 +41007,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41844,9 +41044,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41883,9 +41081,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41922,9 +41118,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41961,9 +41155,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42000,9 +41192,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42039,9 +41229,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42078,9 +41266,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42117,9 +41303,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42156,9 +41340,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42195,9 +41377,7 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42234,9 +41414,7 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42273,9 +41451,7 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42312,9 +41488,7 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42351,9 +41525,7 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42390,9 +41562,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42429,9 +41599,7 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42468,9 +41636,7 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42507,9 +41673,7 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42546,9 +41710,7 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42585,9 +41747,7 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42624,9 +41784,7 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42663,9 +41821,7 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42702,9 +41858,7 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42741,9 +41895,7 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42780,9 +41932,7 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42819,9 +41969,7 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42858,9 +42006,7 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42897,9 +42043,7 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42936,9 +42080,7 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42975,9 +42117,7 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43014,9 +42154,7 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43053,9 +42191,7 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43092,9 +42228,7 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43131,9 +42265,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43170,9 +42302,7 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43209,9 +42339,7 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43248,9 +42376,7 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43287,9 +42413,7 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43326,9 +42450,7 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43365,9 +42487,7 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43404,9 +42524,7 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43443,9 +42561,7 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43482,9 +42598,7 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43521,9 +42635,7 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43560,9 +42672,7 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43599,9 +42709,7 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43638,9 +42746,7 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43677,9 +42783,7 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43716,9 +42820,7 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43755,9 +42857,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43794,9 +42894,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43833,9 +42931,7 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43872,9 +42968,7 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43911,9 +43005,7 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43950,9 +43042,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43989,9 +43079,7 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44028,9 +43116,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44067,9 +43153,7 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44106,9 +43190,7 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44145,9 +43227,7 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44184,9 +43264,7 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44223,9 +43301,7 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44262,9 +43338,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44301,9 +43375,7 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44340,9 +43412,7 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44379,9 +43449,7 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44418,9 +43486,7 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44457,9 +43523,7 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44496,9 +43560,7 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44535,9 +43597,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44574,9 +43634,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44613,9 +43671,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44652,9 +43708,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44691,9 +43745,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44730,9 +43782,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44769,9 +43819,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44808,9 +43856,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44847,9 +43893,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44886,9 +43930,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44925,9 +43967,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44964,9 +44004,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45003,9 +44041,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45042,9 +44078,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45081,9 +44115,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45120,9 +44152,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45159,9 +44189,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45198,9 +44226,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45237,9 +44263,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45276,9 +44300,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45315,9 +44337,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45354,9 +44374,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45393,9 +44411,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45432,9 +44448,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45471,9 +44485,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45510,9 +44522,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45549,9 +44559,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45588,9 +44596,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45627,9 +44633,7 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1279" t="inlineStr"/>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45666,9 +44670,7 @@
         <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1280" t="inlineStr"/>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45705,9 +44707,7 @@
         <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1281" t="inlineStr"/>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45744,9 +44744,7 @@
         <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
-      <c r="J1282" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1282" t="inlineStr"/>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45783,9 +44781,7 @@
         <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
-      <c r="J1283" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1283" t="inlineStr"/>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45819,14 +44815,10 @@
         <v>186595.2377847718</v>
       </c>
       <c r="H1284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1284" t="n">
-        <v>56.63</v>
-      </c>
-      <c r="J1284" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1284" t="inlineStr"/>
+      <c r="J1284" t="inlineStr"/>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45860,14 +44852,10 @@
         <v>188374.8845847718</v>
       </c>
       <c r="H1285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1285" t="n">
-        <v>56.65</v>
-      </c>
-      <c r="J1285" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1285" t="inlineStr"/>
+      <c r="J1285" t="inlineStr"/>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45901,14 +44889,10 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1286" t="n">
-        <v>56.66</v>
-      </c>
-      <c r="J1286" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1286" t="inlineStr"/>
+      <c r="J1286" t="inlineStr"/>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45942,14 +44926,10 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1287" t="n">
-        <v>56.67</v>
-      </c>
-      <c r="J1287" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1287" t="inlineStr"/>
+      <c r="J1287" t="inlineStr"/>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45983,14 +44963,10 @@
         <v>188967.0481847718</v>
       </c>
       <c r="H1288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1288" t="n">
-        <v>56.67</v>
-      </c>
-      <c r="J1288" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1288" t="inlineStr"/>
+      <c r="J1288" t="inlineStr"/>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46024,14 +45000,10 @@
         <v>187587.7180847718</v>
       </c>
       <c r="H1289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1289" t="n">
-        <v>56.65</v>
-      </c>
-      <c r="J1289" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1289" t="inlineStr"/>
+      <c r="J1289" t="inlineStr"/>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46065,14 +45037,10 @@
         <v>186188.5630847718</v>
       </c>
       <c r="H1290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1290" t="n">
-        <v>56.64</v>
-      </c>
-      <c r="J1290" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1290" t="inlineStr"/>
+      <c r="J1290" t="inlineStr"/>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46106,14 +45074,10 @@
         <v>188147.5246847718</v>
       </c>
       <c r="H1291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1291" t="n">
-        <v>56.63</v>
-      </c>
-      <c r="J1291" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1291" t="inlineStr"/>
+      <c r="J1291" t="inlineStr"/>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46147,14 +45111,10 @@
         <v>186359.9001847718</v>
       </c>
       <c r="H1292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1292" t="n">
-        <v>56.67</v>
-      </c>
-      <c r="J1292" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1292" t="inlineStr"/>
+      <c r="J1292" t="inlineStr"/>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46188,14 +45148,10 @@
         <v>188802.6380847718</v>
       </c>
       <c r="H1293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1293" t="n">
-        <v>56.65</v>
-      </c>
-      <c r="J1293" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1293" t="inlineStr"/>
+      <c r="J1293" t="inlineStr"/>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46229,14 +45185,10 @@
         <v>186463.2088847718</v>
       </c>
       <c r="H1294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1294" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="J1294" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1294" t="inlineStr"/>
+      <c r="J1294" t="inlineStr"/>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46270,14 +45222,10 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1295" t="n">
-        <v>56.78</v>
-      </c>
-      <c r="J1295" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1295" t="inlineStr"/>
+      <c r="J1295" t="inlineStr"/>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46311,14 +45259,10 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>56.92</v>
-      </c>
-      <c r="J1296" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1296" t="inlineStr"/>
+      <c r="J1296" t="inlineStr"/>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46352,14 +45296,10 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1297" t="n">
-        <v>56.92</v>
-      </c>
-      <c r="J1297" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1297" t="inlineStr"/>
+      <c r="J1297" t="inlineStr"/>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46393,14 +45333,10 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1298" t="n">
-        <v>56.72</v>
-      </c>
-      <c r="J1298" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1298" t="inlineStr"/>
+      <c r="J1298" t="inlineStr"/>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46434,14 +45370,10 @@
         <v>182447.2947847718</v>
       </c>
       <c r="H1299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1299" t="n">
-        <v>56.72</v>
-      </c>
-      <c r="J1299" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1299" t="inlineStr"/>
+      <c r="J1299" t="inlineStr"/>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46475,14 +45407,10 @@
         <v>180240.1389847718</v>
       </c>
       <c r="H1300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1300" t="n">
-        <v>56.77</v>
-      </c>
-      <c r="J1300" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1300" t="inlineStr"/>
+      <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46516,14 +45444,10 @@
         <v>181203.5568847718</v>
       </c>
       <c r="H1301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1301" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J1301" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1301" t="inlineStr"/>
+      <c r="J1301" t="inlineStr"/>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46557,14 +45481,10 @@
         <v>182017.2540847718</v>
       </c>
       <c r="H1302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1302" t="n">
-        <v>56.76</v>
-      </c>
-      <c r="J1302" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1302" t="inlineStr"/>
+      <c r="J1302" t="inlineStr"/>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46598,14 +45518,10 @@
         <v>184792.1095847718</v>
       </c>
       <c r="H1303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1303" t="n">
-        <v>56.82</v>
-      </c>
-      <c r="J1303" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1303" t="inlineStr"/>
+      <c r="J1303" t="inlineStr"/>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46639,14 +45555,10 @@
         <v>169089.6159847718</v>
       </c>
       <c r="H1304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1304" t="n">
-        <v>56.83</v>
-      </c>
-      <c r="J1304" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1304" t="inlineStr"/>
+      <c r="J1304" t="inlineStr"/>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46680,14 +45592,10 @@
         <v>167462.2215847718</v>
       </c>
       <c r="H1305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1305" t="n">
-        <v>56.78</v>
-      </c>
-      <c r="J1305" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1305" t="inlineStr"/>
+      <c r="J1305" t="inlineStr"/>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46721,14 +45629,10 @@
         <v>171222.6993847718</v>
       </c>
       <c r="H1306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1306" t="n">
-        <v>56.74</v>
-      </c>
-      <c r="J1306" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1306" t="inlineStr"/>
+      <c r="J1306" t="inlineStr"/>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46762,14 +45666,10 @@
         <v>169039.6068847718</v>
       </c>
       <c r="H1307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1307" t="n">
-        <v>56.78</v>
-      </c>
-      <c r="J1307" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1307" t="inlineStr"/>
+      <c r="J1307" t="inlineStr"/>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46803,14 +45703,10 @@
         <v>171787.2742847718</v>
       </c>
       <c r="H1308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1308" t="n">
-        <v>56.75</v>
-      </c>
-      <c r="J1308" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1308" t="inlineStr"/>
+      <c r="J1308" t="inlineStr"/>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46844,14 +45740,10 @@
         <v>170400.4177847718</v>
       </c>
       <c r="H1309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1309" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="J1309" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1309" t="inlineStr"/>
+      <c r="J1309" t="inlineStr"/>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46885,14 +45777,10 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1310" t="n">
-        <v>56.85</v>
-      </c>
-      <c r="J1310" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1310" t="inlineStr"/>
+      <c r="J1310" t="inlineStr"/>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46926,14 +45814,10 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1311" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="J1311" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1311" t="inlineStr"/>
+      <c r="J1311" t="inlineStr"/>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46967,14 +45851,10 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1312" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="J1312" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1312" t="inlineStr"/>
+      <c r="J1312" t="inlineStr"/>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47008,14 +45888,10 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1313" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="J1313" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1313" t="inlineStr"/>
+      <c r="J1313" t="inlineStr"/>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47049,14 +45925,10 @@
         <v>194872.3136847718</v>
       </c>
       <c r="H1314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1314" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="J1314" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1314" t="inlineStr"/>
+      <c r="J1314" t="inlineStr"/>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47090,14 +45962,10 @@
         <v>198499.7080847718</v>
       </c>
       <c r="H1315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1315" t="n">
-        <v>57.19</v>
-      </c>
-      <c r="J1315" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1315" t="inlineStr"/>
+      <c r="J1315" t="inlineStr"/>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47131,14 +45999,10 @@
         <v>200307.6101847718</v>
       </c>
       <c r="H1316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1316" t="n">
-        <v>57.27</v>
-      </c>
-      <c r="J1316" t="n">
-        <v>55.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1316" t="inlineStr"/>
+      <c r="J1316" t="inlineStr"/>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47175,9 +46039,7 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1317" t="inlineStr"/>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47214,9 +46076,7 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1318" t="inlineStr"/>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47253,9 +46113,7 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1319" t="inlineStr"/>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47292,9 +46150,7 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1320" t="inlineStr"/>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47331,9 +46187,7 @@
         <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1321" t="inlineStr"/>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47370,9 +46224,7 @@
         <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1322" t="inlineStr"/>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47409,9 +46261,7 @@
         <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1323" t="inlineStr"/>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47448,9 +46298,7 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1324" t="inlineStr"/>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47487,9 +46335,7 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1325" t="inlineStr"/>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47526,9 +46372,7 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1326" t="inlineStr"/>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47565,9 +46409,7 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1327" t="inlineStr"/>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47604,9 +46446,7 @@
         <v>0</v>
       </c>
       <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1328" t="inlineStr"/>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47643,9 +46483,7 @@
         <v>0</v>
       </c>
       <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1329" t="inlineStr"/>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47682,9 +46520,7 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1330" t="inlineStr"/>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47721,9 +46557,7 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1331" t="inlineStr"/>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47760,9 +46594,7 @@
         <v>0</v>
       </c>
       <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1332" t="inlineStr"/>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47799,9 +46631,7 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1333" t="inlineStr"/>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47838,9 +46668,7 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1334" t="inlineStr"/>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47877,9 +46705,7 @@
         <v>0</v>
       </c>
       <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1335" t="inlineStr"/>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47916,9 +46742,7 @@
         <v>0</v>
       </c>
       <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1336" t="inlineStr"/>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47955,9 +46779,7 @@
         <v>0</v>
       </c>
       <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1337" t="inlineStr"/>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -47994,9 +46816,7 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1338" t="inlineStr"/>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48033,9 +46853,7 @@
         <v>0</v>
       </c>
       <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1339" t="inlineStr"/>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48072,9 +46890,7 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1340" t="inlineStr"/>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48111,9 +46927,7 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1341" t="inlineStr"/>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48150,9 +46964,7 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1342" t="inlineStr"/>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48189,9 +47001,7 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1343" t="inlineStr"/>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48228,9 +47038,7 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1344" t="inlineStr"/>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48267,9 +47075,7 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1345" t="inlineStr"/>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48306,9 +47112,7 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1346" t="inlineStr"/>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48345,9 +47149,7 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1347" t="inlineStr"/>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48384,9 +47186,7 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1348" t="inlineStr"/>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48423,9 +47223,7 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1349" t="inlineStr"/>
       <c r="K1349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48462,9 +47260,7 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1350" t="inlineStr"/>
       <c r="K1350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48501,9 +47297,7 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1351" t="inlineStr"/>
       <c r="K1351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48540,9 +47334,7 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1352" t="inlineStr"/>
       <c r="K1352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48579,9 +47371,7 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1353" t="inlineStr"/>
       <c r="K1353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48618,9 +47408,7 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1354" t="inlineStr"/>
       <c r="K1354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -48657,9 +47445,7 @@
         <v>0</v>
       </c>
       <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="n">
-        <v>55.98</v>
-      </c>
+      <c r="J1355" t="inlineStr"/>
       <c r="K1355" t="inlineStr">
         <is>
           <t>매도 대기</t>
